--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BC/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BC/10/seed5/result_data_RandomForest.xlsx
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.19499999999999</v>
+        <v>-11.39489999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -635,10 +635,10 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.966599999999997</v>
+        <v>5.774399999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.54880000000002</v>
+        <v>-14.69310000000002</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.25379999999999</v>
+        <v>-12.10289999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-10.60929999999999</v>
+        <v>-10.81769999999999</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
